--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/5/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -404,6 +416,28 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -437,6 +441,17 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knex Party</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -453,6 +461,17 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>Knex Party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/9/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meccano Party</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -472,6 +480,17 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,10 @@
   </si>
   <si>
     <t>Meccano Party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Purchase Meccano</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -487,9 +491,20 @@
         <v>9</v>
       </c>
       <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -64,6 +64,12 @@
   <si>
     <t>Purchase Meccano</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Deriving equations for tool position</t>
+  </si>
+  <si>
+    <t>Update Matlab model for PT1b</t>
   </si>
 </sst>
 </file>
@@ -74,14 +80,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -90,7 +96,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -118,16 +124,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -135,7 +144,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -419,15 +428,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,6 +518,28 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>40192</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>40192</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -521,7 +553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -535,7 +567,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Update Matlab model for PT1b</t>
+  </si>
+  <si>
+    <t>Simplified gravity comp fbd and rough software block diagram</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -538,6 +541,17 @@
       </c>
       <c r="C9" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>40192</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>Simplified gravity comp fbd and rough software block diagram</t>
+  </si>
+  <si>
+    <t>1/14/2010</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -83,14 +87,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -99,7 +103,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -139,7 +143,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -147,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,16 +435,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,14 +526,14 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>40192</v>
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -537,10 +541,10 @@
         <v>40192</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -548,9 +552,20 @@
         <v>40192</v>
       </c>
       <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>40192</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -567,7 +582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -581,7 +596,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -76,6 +76,10 @@
   </si>
   <si>
     <t>1/14/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -567,6 +571,28 @@
       </c>
       <c r="C11" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -80,6 +80,30 @@
   </si>
   <si>
     <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/20/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/15/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/18/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Freebody diagrams on gravity compensation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Analysis of motor placement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meeting with Nich on gravity compensation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -439,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -574,25 +598,58 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>Meeting with Nich on gravity compensation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -650,6 +654,17 @@
       </c>
       <c r="C16" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>1/21/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/26/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -467,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -665,6 +669,28 @@
       </c>
       <c r="C17" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>1/26/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/28/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -691,6 +695,17 @@
       </c>
       <c r="C19" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -117,6 +117,15 @@
   <si>
     <t>1/28/2010</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Solid Modelling</t>
+  </si>
+  <si>
+    <t>Client pre-meeting</t>
+  </si>
+  <si>
+    <t>Client Meeting</t>
   </si>
 </sst>
 </file>
@@ -127,14 +136,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -143,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -183,7 +192,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -191,7 +200,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -475,16 +484,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -707,6 +716,119 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>40207</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>40208</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -721,7 +843,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -735,7 +857,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Client Meeting</t>
+  </si>
+  <si>
+    <t>1/14/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/29/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -136,14 +148,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -152,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -192,7 +204,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,7 +212,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -487,13 +499,13 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -586,8 +598,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>40192</v>
+      <c r="A9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -597,8 +609,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>40192</v>
+      <c r="A10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -608,8 +620,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>40192</v>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -718,8 +730,8 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>40207</v>
+      <c r="A21" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -729,8 +741,8 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2">
-        <v>40208</v>
+      <c r="A22" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -740,8 +752,8 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>40210</v>
+      <c r="A23" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -751,8 +763,8 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2">
-        <v>40210</v>
+      <c r="A24" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -843,7 +855,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -857,7 +869,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -137,6 +137,18 @@
   </si>
   <si>
     <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/4/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Design Breakdown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,7 +511,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -774,10 +786,26 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -145,6 +145,26 @@
   </si>
   <si>
     <t>Design Breakdown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Solid Modelling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/11/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Design and Decisions Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -508,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="D28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -787,34 +807,58 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>0.5</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-    </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2"/>
@@ -869,6 +913,12 @@
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -169,6 +169,14 @@
   </si>
   <si>
     <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/18/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting on Skype</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -861,7 +869,15 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -75,26 +75,6 @@
     <t>Simplified gravity comp fbd and rough software block diagram</t>
   </si>
   <si>
-    <t>1/14/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/20/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/15/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/18/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Freebody diagrams on gravity compensation</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -107,18 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/26/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/28/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Solid Modelling</t>
   </si>
   <si>
@@ -128,55 +96,23 @@
     <t>Client Meeting</t>
   </si>
   <si>
-    <t>1/14/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/29/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/4/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Design Breakdown</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/2/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Solid Modelling</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/11/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Design and Decisions Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/18/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -539,12 +475,12 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -616,8 +552,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="2">
+        <v>40187</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -627,8 +563,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>15</v>
+      <c r="A8" s="2">
+        <v>40192</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -638,8 +574,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
+      <c r="A9" s="2">
+        <v>40192</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -649,8 +585,8 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>29</v>
+      <c r="A10" s="2">
+        <v>40192</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -660,8 +596,8 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>29</v>
+      <c r="A11" s="2">
+        <v>40192</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -671,30 +607,30 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
+      <c r="A12" s="2">
+        <v>40193</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
+      <c r="A13" s="2">
+        <v>40196</v>
       </c>
       <c r="B13">
         <v>0.5</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>16</v>
+      <c r="A14" s="2">
+        <v>40197</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -704,8 +640,8 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
+      <c r="A15" s="2">
+        <v>40197</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -715,19 +651,19 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="2">
+        <v>40198</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>23</v>
+      <c r="A17" s="2">
+        <v>40199</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -737,8 +673,8 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>24</v>
+      <c r="A18" s="2">
+        <v>40204</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -748,8 +684,8 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>24</v>
+      <c r="A19" s="2">
+        <v>40204</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -759,8 +695,8 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>25</v>
+      <c r="A20" s="2">
+        <v>40206</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -770,74 +706,74 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
+      <c r="A21" s="2">
+        <v>40207</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
+      <c r="A22" s="2">
+        <v>40207</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
+      <c r="A23" s="2">
+        <v>40210</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
+      <c r="A24" s="2">
+        <v>40210</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
+      <c r="A25" s="2">
+        <v>40211</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>32</v>
+      <c r="A26" s="2">
+        <v>40213</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
+      <c r="A27" s="2">
+        <v>40217</v>
       </c>
       <c r="B27">
         <v>0.5</v>
@@ -847,8 +783,8 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>39</v>
+      <c r="A28" s="2">
+        <v>40217</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -858,32 +794,48 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>37</v>
+      <c r="A29" s="2">
+        <v>40220</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>40</v>
+      <c r="A30" s="2">
+        <v>40227</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
+      <c r="A31" s="2">
+        <v>40229</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2"/>
+      <c r="A32" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -475,7 +479,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -837,52 +841,68 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1">
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:3">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:3">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:3">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:3">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:3">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:3">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:3">
       <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1">

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -118,6 +118,30 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Olympic Break</t>
+  </si>
+  <si>
+    <t>Solid Modeling of design</t>
+  </si>
+  <si>
+    <t>Joint 1-2 design</t>
+  </si>
+  <si>
+    <t>Bearing selection and research for joint 1-2</t>
+  </si>
+  <si>
+    <t>Power supply research</t>
+  </si>
+  <si>
+    <t>Preliminary wiring harness design</t>
+  </si>
+  <si>
+    <t>Trying to understand the bone mount</t>
+  </si>
+  <si>
+    <t>Log book catch-up</t>
   </si>
 </sst>
 </file>
@@ -128,14 +152,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -144,7 +168,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -184,7 +208,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,14 +502,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -864,25 +888,81 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
+      <c r="A40" s="2">
+        <v>40239</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="2"/>
+      <c r="A41" s="2">
+        <v>40243</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2"/>
@@ -921,7 +1001,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -935,7 +1015,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/5/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -42,22 +38,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Knex Party</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/9/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Meccano Party</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -120,12 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Olympic Break</t>
-  </si>
-  <si>
-    <t>Solid Modeling of design</t>
-  </si>
-  <si>
     <t>Joint 1-2 design</t>
   </si>
   <si>
@@ -142,6 +120,10 @@
   </si>
   <si>
     <t>Log book catch-up</t>
+  </si>
+  <si>
+    <t>Solid Modeling of design (span of reading break)</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -152,14 +134,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -168,7 +150,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -208,7 +190,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -216,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -502,14 +484,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -525,58 +507,58 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="2">
+        <v>40183</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3" s="2">
+        <v>40183</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="2">
+        <v>40185</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="2">
+        <v>40186</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="2">
+        <v>40187</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -587,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -598,7 +580,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -609,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -620,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -631,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -642,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -653,7 +635,7 @@
         <v>0.5</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -664,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -675,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -686,7 +668,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -697,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -708,7 +690,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -719,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -730,7 +712,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -741,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -752,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -763,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -774,7 +756,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -785,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -796,7 +778,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -807,7 +789,7 @@
         <v>0.5</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -818,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -829,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -840,84 +822,84 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>40229</v>
+        <v>40228</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>40232</v>
+        <v>40228</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>40239</v>
+        <v>40228</v>
       </c>
       <c r="B33">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
+        <v>40229</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>40239</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B36">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>27</v>
+      <c r="A37" s="2">
+        <v>40239</v>
       </c>
       <c r="B37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -928,7 +910,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -939,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -950,7 +932,7 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -961,17 +943,8 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2"/>
@@ -1001,7 +974,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1015,7 +988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>Solid Modeling of design (span of reading break)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -485,7 +489,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -944,6 +948,28 @@
       </c>
       <c r="C41" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>Solid Modeling of design (span of reading break)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -488,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -970,6 +974,17 @@
       </c>
       <c r="C43" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>40253</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3">

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -123,6 +123,10 @@
   </si>
   <si>
     <t>Solid Modeling of design (span of reading break)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -493,7 +497,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -988,10 +992,26 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B45">
+        <v>2.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1014,7 +1014,15 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -136,6 +136,18 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finalizing Design and Modelling</t>
+  </si>
+  <si>
+    <t>Documenting Design</t>
+  </si>
+  <si>
+    <t>Producing Manufacturing Drawings</t>
+  </si>
+  <si>
+    <t>Lathe Work</t>
   </si>
 </sst>
 </file>
@@ -146,14 +158,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -162,7 +174,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -202,7 +214,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -210,7 +222,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -494,16 +506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1025,10 +1037,59 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2"/>
+      <c r="A48" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>40270</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>40273</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>40274</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>40274</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1043,7 +1104,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,7 +1118,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>Lathe Work</t>
+  </si>
+  <si>
+    <t>Updating Models and Producing Manufacting Drawings</t>
+  </si>
+  <si>
+    <t>Updating backed up models after models became corrupt</t>
+  </si>
+  <si>
+    <t>Listed parts w/ status and estimated time required to finish</t>
+  </si>
+  <si>
+    <t>Reviewed parts list to ensure everything has been ordered</t>
   </si>
 </sst>
 </file>
@@ -506,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,6 +1102,112 @@
       <c r="C52" t="s">
         <v>36</v>
       </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>40275</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>40276</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>40276</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>40277</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>40279</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>40280</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>40280</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>40280</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/trunk/status reports/david.xlsx
+++ b/trunk/status reports/david.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>Reviewed parts list to ensure everything has been ordered</t>
+  </si>
+  <si>
+    <t>Machining</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Final Report - Drawings and writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assembly</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -170,14 +182,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -186,7 +198,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -226,7 +238,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,7 +246,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -520,14 +532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1192,22 +1204,70 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2">
+        <v>40284</v>
+      </c>
+      <c r="B61">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2">
+        <v>40285</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="2"/>
+      <c r="A63" s="2">
+        <v>40287</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="2"/>
+      <c r="A64" s="2">
+        <v>40288</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>40289</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>40290</v>
+      </c>
+      <c r="B66">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1222,7 +1282,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1236,7 +1296,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
